--- a/simulation/robotstudio_sim/scripts/fitting_output_new/Jon/comparison.xlsx
+++ b/simulation/robotstudio_sim/scripts/fitting_output_new/Jon/comparison.xlsx
@@ -419,7 +419,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>4.828420556408384</v>
+        <v>3.464024090541006</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -437,7 +437,7 @@
         <v>2</v>
       </c>
       <c r="B7">
-        <v>113</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -455,7 +455,7 @@
         <v>2</v>
       </c>
       <c r="B10">
-        <v>1.416</v>
+        <v>2.183999999999999</v>
       </c>
     </row>
     <row r="11" spans="1:2">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="B13">
-        <v>2782.348441630174</v>
+        <v>1936.566069543899</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -491,7 +491,7 @@
         <v>2</v>
       </c>
       <c r="B16">
-        <v>0.6770240760961894</v>
+        <v>0.0488046612276706</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -509,7 +509,7 @@
         <v>2</v>
       </c>
       <c r="B19">
-        <v>0.2860393223664505</v>
+        <v>0.5788075084887536</v>
       </c>
     </row>
     <row r="20" spans="1:2">
@@ -527,7 +527,7 @@
         <v>2</v>
       </c>
       <c r="B22">
-        <v>0</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
